--- a/neural-network/trigram-pattern-frequencies/trigram-pattern-frequencies-val.xlsx
+++ b/neural-network/trigram-pattern-frequencies/trigram-pattern-frequencies-val.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a66692c83fa18ac/Desktop/relationships-between-organizational-patterns/neural-network/trigram-pattern-frequencies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a66692c83fa18ac/Desktop/temp/relationships-between-organizational-patterns/neural-network/trigram-pattern-frequencies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{649272DD-5055-48D0-B750-1366924316C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43D4ED61-3FAF-4742-B3A7-42F255B3A534}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{649272DD-5055-48D0-B750-1366924316C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08C07049-F79A-4E82-A156-DE8C4381856E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{61481A29-A0BE-4C73-89B4-C1F8063AA853}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>OrganizationalPattern</t>
   </si>
@@ -95,6 +95,24 @@
   </si>
   <si>
     <t>Smoke-FilledRoom</t>
+  </si>
+  <si>
+    <t>DeveloperControlsProcess</t>
+  </si>
+  <si>
+    <t>DevelopingInPairs</t>
+  </si>
+  <si>
+    <t>DistributeWorkEvenly</t>
+  </si>
+  <si>
+    <t>DivideAndConquer</t>
+  </si>
+  <si>
+    <t>DomainExpertiseInRoles</t>
+  </si>
+  <si>
+    <t>FeatureAssignment</t>
   </si>
 </sst>
 </file>
@@ -483,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59504B2-9C1C-4F10-9115-BF79C5356D30}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,6 +852,252 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="M9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="M10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="M11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="M12" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="M13" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="M14" s="3">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/neural-network/trigram-pattern-frequencies/trigram-pattern-frequencies-val.xlsx
+++ b/neural-network/trigram-pattern-frequencies/trigram-pattern-frequencies-val.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a66692c83fa18ac/Desktop/temp/relationships-between-organizational-patterns/neural-network/trigram-pattern-frequencies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{649272DD-5055-48D0-B750-1366924316C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08C07049-F79A-4E82-A156-DE8C4381856E}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{09BC85F0-FB7D-47B9-80F7-16256E16A6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E22135AD-E0BF-4992-9E6F-70BE75E343CC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{61481A29-A0BE-4C73-89B4-C1F8063AA853}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{76E48FA9-AEB9-4D98-837F-B895D2B4392F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>OrganizationalPattern</t>
   </si>
@@ -76,25 +76,22 @@
     <t>PatternIndex</t>
   </si>
   <si>
-    <t>ParserBuilder</t>
-  </si>
-  <si>
-    <t>PatronRole</t>
-  </si>
-  <si>
-    <t>PhasingItIn</t>
-  </si>
-  <si>
-    <t>PrivateVersioning</t>
-  </si>
-  <si>
-    <t>SacrificeOnePerson</t>
-  </si>
-  <si>
-    <t>SizeTheOrganization</t>
-  </si>
-  <si>
-    <t>Smoke-FilledRoom</t>
+    <t>Apprenticeship</t>
+  </si>
+  <si>
+    <t>ArchitectAlsoImplements</t>
+  </si>
+  <si>
+    <t>ArchitectControlsProduct</t>
+  </si>
+  <si>
+    <t>ArchitectureTeam</t>
+  </si>
+  <si>
+    <t>CodeOwnership</t>
+  </si>
+  <si>
+    <t>DeployAlongTheGrain</t>
   </si>
   <si>
     <t>DeveloperControlsProcess</t>
@@ -113,6 +110,21 @@
   </si>
   <si>
     <t>FeatureAssignment</t>
+  </si>
+  <si>
+    <t>Stand-UpMeeting</t>
+  </si>
+  <si>
+    <t>StandardsLinkingLocations</t>
+  </si>
+  <si>
+    <t>LockEmUpTogether</t>
+  </si>
+  <si>
+    <t>LooseInterfaces</t>
+  </si>
+  <si>
+    <t>OrganizationFollowsMarket</t>
   </si>
 </sst>
 </file>
@@ -500,28 +512,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59504B2-9C1C-4F10-9115-BF79C5356D30}">
-  <dimension ref="A1:M14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9DC52E-B46D-44C4-ACBF-58CA2C032E4F}">
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9:M14"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" customWidth="1"/>
-    <col min="6" max="6" width="33.77734375" customWidth="1"/>
-    <col min="7" max="7" width="32.77734375" customWidth="1"/>
-    <col min="8" max="8" width="34.21875" customWidth="1"/>
-    <col min="9" max="9" width="35.44140625" customWidth="1"/>
-    <col min="10" max="10" width="37.77734375" customWidth="1"/>
-    <col min="11" max="11" width="38.21875" customWidth="1"/>
-    <col min="12" max="12" width="35.6640625" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="7" max="7" width="32.88671875" customWidth="1"/>
+    <col min="8" max="8" width="34.109375" customWidth="1"/>
+    <col min="9" max="9" width="28" customWidth="1"/>
+    <col min="10" max="10" width="35.77734375" customWidth="1"/>
+    <col min="11" max="11" width="30.109375" customWidth="1"/>
+    <col min="12" max="12" width="37.5546875" customWidth="1"/>
+    <col min="13" max="13" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -585,7 +597,7 @@
         <v>1.01</v>
       </c>
       <c r="G2" s="3">
-        <v>0.89</v>
+        <v>1.01</v>
       </c>
       <c r="H2" s="3">
         <v>0.89</v>
@@ -594,7 +606,7 @@
         <v>0.89</v>
       </c>
       <c r="J2" s="3">
-        <v>1.01</v>
+        <v>0.89</v>
       </c>
       <c r="K2" s="3">
         <v>1.01</v>
@@ -895,7 +907,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3">
         <v>1.01</v>
@@ -936,7 +948,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3">
         <v>1.01</v>
@@ -977,7 +989,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3">
         <v>1.01</v>
@@ -1018,7 +1030,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3">
         <v>1.01</v>
@@ -1059,7 +1071,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3">
         <v>1.01</v>
@@ -1096,6 +1108,211 @@
       </c>
       <c r="M14" s="3">
         <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="M15" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="M16" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="M17" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="M18" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="M19" s="3">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
